--- a/RecordNames.xlsx
+++ b/RecordNames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyo/IdeaProjects/SDAMentoring_TestNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D62602E-9961-2B40-9C69-E5FB4FE3D180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F403EE6-B580-2546-AB25-8504752835A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="680" windowWidth="28040" windowHeight="16960" xr2:uid="{93A1ED4B-C3CC-DA4C-87F0-2A181B957BBD}"/>
+    <workbookView xWindow="680" yWindow="680" windowWidth="28040" windowHeight="16840" xr2:uid="{93A1ED4B-C3CC-DA4C-87F0-2A181B957BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Age</t>
   </si>
@@ -63,13 +60,22 @@
   </si>
   <si>
     <t>UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name	</t>
+  </si>
+  <si>
+    <t>Nour F</t>
+  </si>
+  <si>
+    <t>Huda M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +88,14 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,9 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,58 +458,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B666AFB-23C8-C446-9ABB-FA406F9D0F00}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" s="2">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4" s="2">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
